--- a/biology/Zoologie/Amazone_à_front_blanc/Amazone_à_front_blanc.xlsx
+++ b/biology/Zoologie/Amazone_à_front_blanc/Amazone_à_front_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_front_blanc</t>
+          <t>Amazone_à_front_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona albifrons
 L'Amazone à front blanc (Amazona albifrons) est une espèce d'amazone de l'Amérique centrale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_front_blanc</t>
+          <t>Amazone_à_front_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 24 à 25 cm de longueur pour une envergure de 58 cm et une masse de 200 g. Il présente un plumage essentiellement vert avec le front blanc, la calotte bleue, les tours des yeux et les couvertures primaires rouges.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_front_blanc</t>
+          <t>Amazone_à_front_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Amérique centrale : Costa Rica...
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_front_blanc</t>
+          <t>Amazone_à_front_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se déplace en groupes pouvant compter jusqu'à 50 individus[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se déplace en groupes pouvant compter jusqu'à 50 individus.
 </t>
         </is>
       </c>
